--- a/6/1/1/4/Derivados entre monedas extranjeras 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/4/Derivados entre monedas extranjeras 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Serie</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4904,22 +4907,22 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>63047</v>
+        <v>63044</v>
       </c>
       <c r="C174">
         <v>9049</v>
       </c>
       <c r="D174">
-        <v>53998</v>
+        <v>53995</v>
       </c>
       <c r="E174">
-        <v>14552</v>
+        <v>14550</v>
       </c>
       <c r="F174">
         <v>1884</v>
       </c>
       <c r="G174">
-        <v>12668</v>
+        <v>12665</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4927,13 +4930,13 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>59036</v>
+        <v>59033</v>
       </c>
       <c r="C175">
         <v>9095</v>
       </c>
       <c r="D175">
-        <v>49941</v>
+        <v>49938</v>
       </c>
       <c r="E175">
         <v>18242</v>
@@ -4943,6 +4946,29 @@
       </c>
       <c r="G175">
         <v>15690</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176">
+        <v>56021</v>
+      </c>
+      <c r="C176">
+        <v>8875</v>
+      </c>
+      <c r="D176">
+        <v>47146</v>
+      </c>
+      <c r="E176">
+        <v>10739</v>
+      </c>
+      <c r="F176">
+        <v>2112</v>
+      </c>
+      <c r="G176">
+        <v>8627</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/4/Derivados entre monedas extranjeras 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/4/Derivados entre monedas extranjeras 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Serie</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4907,22 +4910,22 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>63044</v>
+        <v>63062</v>
       </c>
       <c r="C174">
         <v>9049</v>
       </c>
       <c r="D174">
-        <v>53995</v>
+        <v>54013</v>
       </c>
       <c r="E174">
-        <v>14550</v>
+        <v>14568</v>
       </c>
       <c r="F174">
         <v>1884</v>
       </c>
       <c r="G174">
-        <v>12665</v>
+        <v>12683</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4930,13 +4933,13 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>59033</v>
+        <v>59052</v>
       </c>
       <c r="C175">
         <v>9095</v>
       </c>
       <c r="D175">
-        <v>49938</v>
+        <v>49956</v>
       </c>
       <c r="E175">
         <v>18242</v>
@@ -4953,13 +4956,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>56021</v>
+        <v>56036</v>
       </c>
       <c r="C176">
         <v>8875</v>
       </c>
       <c r="D176">
-        <v>47146</v>
+        <v>47162</v>
       </c>
       <c r="E176">
         <v>10739</v>
@@ -4969,6 +4972,29 @@
       </c>
       <c r="G176">
         <v>8627</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177">
+        <v>55844</v>
+      </c>
+      <c r="C177">
+        <v>8976</v>
+      </c>
+      <c r="D177">
+        <v>46868</v>
+      </c>
+      <c r="E177">
+        <v>10852</v>
+      </c>
+      <c r="F177">
+        <v>1443</v>
+      </c>
+      <c r="G177">
+        <v>9409</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/4/Derivados entre monedas extranjeras 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/4/Derivados entre monedas extranjeras 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4997,6 +5000,29 @@
         <v>9409</v>
       </c>
     </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178">
+        <v>55232</v>
+      </c>
+      <c r="C178">
+        <v>9428</v>
+      </c>
+      <c r="D178">
+        <v>45804</v>
+      </c>
+      <c r="E178">
+        <v>14123</v>
+      </c>
+      <c r="F178">
+        <v>2148</v>
+      </c>
+      <c r="G178">
+        <v>11975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
